--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3738.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3738.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.203238484334809</v>
+        <v>0.9649872183799744</v>
       </c>
       <c r="B1">
-        <v>2.262293067052416</v>
+        <v>4.451056480407715</v>
       </c>
       <c r="C1">
-        <v>5.080506858518908</v>
+        <v>1.755985140800476</v>
       </c>
       <c r="D1">
-        <v>3.287084677572806</v>
+        <v>0.9119553565979004</v>
       </c>
       <c r="E1">
-        <v>1.199332207639658</v>
+        <v>0.9552488923072815</v>
       </c>
     </row>
   </sheetData>
